--- a/Data for Sales Analysis.xlsx
+++ b/Data for Sales Analysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10572" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10572" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot Sheet" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -1854,10 +1854,10 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -2437,11 +2437,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="2000476992"/>
-        <c:axId val="2000478080"/>
+        <c:axId val="-2086578368"/>
+        <c:axId val="-2086583808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2000476992"/>
+        <c:axId val="-2086578368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2484,7 +2484,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2000478080"/>
+        <c:crossAx val="-2086583808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2492,7 +2492,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2000478080"/>
+        <c:axId val="-2086583808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2543,7 +2543,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2000476992"/>
+        <c:crossAx val="-2086578368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4556,11 +4556,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2000465568"/>
-        <c:axId val="2000479712"/>
+        <c:axId val="-199068336"/>
+        <c:axId val="-2143783776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2000465568"/>
+        <c:axId val="-199068336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4603,7 +4603,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2000479712"/>
+        <c:crossAx val="-2143783776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4611,7 +4611,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2000479712"/>
+        <c:axId val="-2143783776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4662,7 +4662,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2000465568"/>
+        <c:crossAx val="-199068336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5250,11 +5250,11 @@
         </c:dLbls>
         <c:gapWidth val="269"/>
         <c:overlap val="-20"/>
-        <c:axId val="2000472640"/>
-        <c:axId val="2000467200"/>
+        <c:axId val="-2036039680"/>
+        <c:axId val="-2036039136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2000472640"/>
+        <c:axId val="-2036039680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5294,7 +5294,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2000467200"/>
+        <c:crossAx val="-2036039136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5302,7 +5302,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2000467200"/>
+        <c:axId val="-2036039136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5349,7 +5349,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2000472640"/>
+        <c:crossAx val="-2036039680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5453,8 +5453,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.2870846235802569E-3"/>
-          <c:y val="0.3007775885171643"/>
+          <c:x val="0.11271405732464139"/>
+          <c:y val="3.7597198564645537E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -5986,11 +5986,11 @@
         </c:dLbls>
         <c:gapWidth val="269"/>
         <c:overlap val="-20"/>
-        <c:axId val="2000468832"/>
-        <c:axId val="2000469920"/>
+        <c:axId val="-2036037504"/>
+        <c:axId val="-2036027712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2000468832"/>
+        <c:axId val="-2036037504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6030,7 +6030,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2000469920"/>
+        <c:crossAx val="-2036027712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6038,7 +6038,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2000469920"/>
+        <c:axId val="-2036027712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6085,7 +6085,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2000468832"/>
+        <c:crossAx val="-2036037504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7285,11 +7285,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="100"/>
-        <c:axId val="1880357136"/>
-        <c:axId val="2003916400"/>
+        <c:axId val="-2036030976"/>
+        <c:axId val="-2036030432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1880357136"/>
+        <c:axId val="-2036030976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7332,7 +7332,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2003916400"/>
+        <c:crossAx val="-2036030432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7340,7 +7340,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2003916400"/>
+        <c:axId val="-2036030432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7391,7 +7391,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1880357136"/>
+        <c:crossAx val="-2036030976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -31345,7 +31345,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="32">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="34">
   <location ref="D31:E37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField showAll="0"/>
@@ -31552,7 +31552,7 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
-  <chartFormats count="7">
+  <chartFormats count="8">
     <chartFormat chart="15" format="3" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -31616,6 +31616,15 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="32" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -31627,7 +31636,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="26">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="27">
   <location ref="D38:E59" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField showAll="0"/>
@@ -32149,7 +32158,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField showAll="0"/>
@@ -32371,7 +32380,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
   <location ref="A11:B28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField showAll="0"/>
@@ -33029,7 +33038,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="57">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="58">
   <location ref="A30:C47" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField showAll="0"/>
@@ -34596,7 +34605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
@@ -34606,32 +34615,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="44.4" x14ac:dyDescent="0.7">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>561</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -34654,9 +34663,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1047"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -89813,7 +89822,7 @@
       <c r="B1043" s="13" t="s">
         <v>568</v>
       </c>
-      <c r="C1043" s="16">
+      <c r="C1043" s="15">
         <f>COUNT(Table1[[#All],[Cost Of Goods Sold]])</f>
         <v>1039</v>
       </c>
